--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr5_Np1_Nj0.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr5_Np1_Nj0.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Row</t>
   </si>
@@ -106,6 +106,72 @@
   </si>
   <si>
     <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -181,7 +247,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
@@ -194,50 +260,50 @@
     <col min="8" max="8" width="16.24609375" customWidth="true"/>
     <col min="9" max="9" width="16.24609375" customWidth="true"/>
     <col min="10" max="10" width="15.77734375" customWidth="true"/>
-    <col min="11" max="11" width="15.77734375" customWidth="true"/>
+    <col min="11" max="11" width="16.24609375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B2" s="0">
-        <v>0.29034865837011031</v>
+        <v>0.29040654557200052</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -269,317 +335,352 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B3" s="0">
-        <v>0.28829125401887046</v>
+        <v>0.2883399846780918</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.0037601574476204785</v>
+        <v>-0.0037345261526704034</v>
       </c>
       <c r="E3" s="0">
-        <v>3.4337076940605837e-05</v>
+        <v>3.2617294172068889e-05</v>
       </c>
       <c r="F3" s="0">
-        <v>-0.0007241411671682445</v>
+        <v>-0.00070351074035013359</v>
       </c>
       <c r="G3" s="0">
-        <v>0.00055684793252520524</v>
+        <v>0.00055721976762425807</v>
       </c>
       <c r="H3" s="0">
-        <v>-4.1177387875641669e-05</v>
+        <v>-4.0210259943941748e-05</v>
       </c>
       <c r="I3" s="0">
-        <v>-0.0011427304660853359</v>
+        <v>-0.0011457946649545724</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>-8.4237926610275515e-06</v>
+        <v>-8.4236888974742463e-06</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B4" s="0">
-        <v>0.29001720819737875</v>
+        <v>0.29006674866173043</v>
       </c>
       <c r="C4" s="0">
-        <v>-0.0010343243486490479</v>
+        <v>-0.0013318653090890874</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>6.2092664165479735e-05</v>
+        <v>6.197029140853549e-05</v>
       </c>
       <c r="F4" s="0">
-        <v>2.0272032248272353e-05</v>
+        <v>2.0310700913276336e-05</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>0.00010865761476804658</v>
+        <v>0.00010845187441225012</v>
       </c>
       <c r="I4" s="0">
-        <v>-0.0014762874771930851</v>
+        <v>-0.0014747325916175474</v>
       </c>
       <c r="J4" s="0">
-        <v>-1.878698282278488e-05</v>
+        <v>-1.9842783981911105e-05</v>
       </c>
       <c r="K4" s="0">
-        <v>1.1125019989954854e-05</v>
+        <v>1.1126136234329564e-05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B5" s="0">
-        <v>0.28599288858179917</v>
+        <v>0.28594509726528322</v>
       </c>
       <c r="C5" s="0">
-        <v>0.0044448828510408314</v>
+        <v>0.0048478524857074427</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.0057047310579066484</v>
+        <v>-0.005721423815900596</v>
       </c>
       <c r="E5" s="0">
-        <v>-1.4172381117135253e-05</v>
+        <v>-1.2532058012602153e-05</v>
       </c>
       <c r="F5" s="0">
-        <v>-0.0005704846605410393</v>
+        <v>-0.00058023970170533335</v>
       </c>
       <c r="G5" s="0">
-        <v>-0.0013250817874096005</v>
+        <v>-0.0013259655497840298</v>
       </c>
       <c r="H5" s="0">
-        <v>-5.5303053447275762e-05</v>
+        <v>-5.5765249079297442e-05</v>
       </c>
       <c r="I5" s="0">
-        <v>-0.00037324898320997743</v>
+        <v>-0.00037286138406756925</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>-7.7399839685243776e-06</v>
+        <v>-7.739627423231088e-06</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B6" s="0">
-        <v>0.30663269817667355</v>
+        <v>0.3067184887855679</v>
       </c>
       <c r="C6" s="0">
-        <v>0.026706496313470357</v>
+        <v>0.026626389142046444</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>-0.0001632859739442101</v>
+        <v>-0.00016330172996874596</v>
       </c>
       <c r="F6" s="0">
-        <v>-4.0191154630984173e-05</v>
+        <v>-3.9988382522921613e-05</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>-7.458304709076129e-05</v>
+        <v>-7.4963861850250313e-05</v>
       </c>
       <c r="I6" s="0">
-        <v>-0.0024794094876418064</v>
+        <v>-0.0024872881666104102</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>-4.5671854981277349e-07</v>
+        <v>-4.5665828452001733e-07</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B7" s="0">
-        <v>0.31190328499201553</v>
+        <v>0.31196653594622459</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.0018563465019068553</v>
+        <v>-0.0018964970242068137</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.00036275185978679295</v>
+        <v>-0.00035730565221726396</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.0016278451857022072</v>
+        <v>-0.001632774819356477</v>
       </c>
       <c r="G7" s="0">
-        <v>0.00090296869638958974</v>
+        <v>0.00090485844734531837</v>
       </c>
       <c r="H7" s="0">
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>0.00018917729612257723</v>
+        <v>0.00018876429033294837</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>-4.9444044074142823e-05</v>
+        <v>-4.9444114695706975e-05</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B8" s="0">
-        <v>0.31878250193905844</v>
+        <v>0.31864706530278464</v>
       </c>
       <c r="C8" s="0">
-        <v>-0.040187940683059788</v>
+        <v>-0.039985097915106953</v>
       </c>
       <c r="D8" s="0">
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>6.0594152586016403e-05</v>
+        <v>6.0624735594868852e-05</v>
       </c>
       <c r="F8" s="0">
-        <v>-0.00045820148084702695</v>
+        <v>-0.00045814748924434415</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
       </c>
       <c r="H8" s="0">
-        <v>4.0617037002485685e-05</v>
+        <v>4.0629635357939878e-05</v>
       </c>
       <c r="I8" s="0">
-        <v>0.0017386477286556795</v>
+        <v>0.0017408336752492445</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
       </c>
       <c r="K8" s="0">
-        <v>-0.00012672397601598551</v>
+        <v>-0.00012672024750748356</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="B9" s="0">
-        <v>0.31222466562837553</v>
+        <v>0.31207610703187499</v>
       </c>
       <c r="C9" s="0">
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>0.001097529225718732</v>
+        <v>0.0011226081833735219</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.0026416506265176556</v>
+        <v>-0.0026494966395533746</v>
       </c>
       <c r="F9" s="0">
-        <v>-0.0063593384749180693</v>
+        <v>-0.0063659711249954105</v>
       </c>
       <c r="G9" s="0">
-        <v>0.00083865299350266063</v>
+        <v>0.00083366065886520692</v>
       </c>
       <c r="H9" s="0">
-        <v>-0.00016907805788563706</v>
+        <v>-0.00016802755959165582</v>
       </c>
       <c r="I9" s="0">
-        <v>-0.00048136429715917386</v>
+        <v>-0.00048103743052742358</v>
       </c>
       <c r="J9" s="0">
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>2.0235308522409401e-05</v>
+        <v>2.023578640197865e-05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="B10" s="0">
-        <v>0.34155190334774804</v>
+        <v>0.34247317857473453</v>
       </c>
       <c r="C10" s="0">
-        <v>0.072647630711149089</v>
+        <v>0.072755857903244306</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>4.3243558533111735e-05</v>
+        <v>4.3239193553113428e-05</v>
       </c>
       <c r="F10" s="0">
-        <v>-0.00039675167469763368</v>
+        <v>-0.00039627985097259575</v>
       </c>
       <c r="G10" s="0">
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>3.5585916342279425e-06</v>
+        <v>3.5493444320220409e-06</v>
       </c>
       <c r="I10" s="0">
-        <v>-0.00052960556049106355</v>
+        <v>-0.00052359688425565902</v>
       </c>
       <c r="J10" s="0">
-        <v>-0.0020687127764645614</v>
+        <v>-0.002071159832945842</v>
       </c>
       <c r="K10" s="0">
-        <v>8.4309070341737069e-07</v>
+        <v>8.3642888987212061e-07</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="B11" s="0">
-        <v>0.30220361100380921</v>
+        <v>0.30303104707769152</v>
       </c>
       <c r="C11" s="0">
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>-0.012031100486890409</v>
+        <v>-0.012001782145421195</v>
       </c>
       <c r="E11" s="0">
-        <v>0.0014625044963624918</v>
+        <v>0.0014647726510751699</v>
       </c>
       <c r="F11" s="0">
-        <v>0.0017225448468691294</v>
+        <v>0.0016857309612490507</v>
       </c>
       <c r="G11" s="0">
-        <v>0.0015150150471042992</v>
+        <v>0.001518605124232831</v>
       </c>
       <c r="H11" s="0">
-        <v>0.00026222667252993485</v>
+        <v>0.00026066218882010185</v>
       </c>
       <c r="I11" s="0">
-        <v>-0.0045128775715223522</v>
+        <v>-0.0045294536703760829</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
       </c>
       <c r="K11" s="0">
-        <v>-8.5423999755696034e-05</v>
+        <v>-8.5424417404389441e-05</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="0">
+        <v>0.23410650938505859</v>
+      </c>
+      <c r="C12" s="0">
+        <v>-0.041080788688553485</v>
+      </c>
+      <c r="D12" s="0">
+        <v>0</v>
+      </c>
+      <c r="E12" s="0">
+        <v>0.00012005393746732484</v>
+      </c>
+      <c r="F12" s="0">
+        <v>9.6349337552514828e-06</v>
+      </c>
+      <c r="G12" s="0">
+        <v>0</v>
+      </c>
+      <c r="H12" s="0">
+        <v>2.2004206473462715e-06</v>
+      </c>
+      <c r="I12" s="0">
+        <v>-3.387924211993353e-05</v>
+      </c>
+      <c r="J12" s="0">
+        <v>0</v>
+      </c>
+      <c r="K12" s="0">
+        <v>4.5394574599288973e-08</v>
       </c>
     </row>
   </sheetData>

--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr5_Np1_Nj0.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr5_Np1_Nj0.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>Row</t>
   </si>
@@ -172,6 +172,147 @@
   </si>
   <si>
     <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -247,11 +388,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K14"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
-    <col min="2" max="2" width="12.64453125" customWidth="true"/>
+    <col min="2" max="2" width="13.64453125" customWidth="true"/>
     <col min="3" max="3" width="15.24609375" customWidth="true"/>
     <col min="4" max="4" width="15.24609375" customWidth="true"/>
     <col min="5" max="5" width="16.24609375" customWidth="true"/>
@@ -265,45 +406,45 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="B2" s="0">
-        <v>0.29040654557200052</v>
+        <v>0.29049029720162994</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -335,352 +476,422 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="B3" s="0">
-        <v>0.2883399846780918</v>
+        <v>0.28840468497359872</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.0037345261526704034</v>
+        <v>-0.0037760560133962523</v>
       </c>
       <c r="E3" s="0">
-        <v>3.2617294172068889e-05</v>
+        <v>3.3428973527786976e-05</v>
       </c>
       <c r="F3" s="0">
-        <v>-0.00070351074035013359</v>
+        <v>-0.000718781194384485</v>
       </c>
       <c r="G3" s="0">
-        <v>0.00055721976762425807</v>
+        <v>0.00055859443321666115</v>
       </c>
       <c r="H3" s="0">
-        <v>-4.0210259943941748e-05</v>
+        <v>-4.0992975438381106e-05</v>
       </c>
       <c r="I3" s="0">
-        <v>-0.0011457946649545724</v>
+        <v>-0.0011499248894332398</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>-8.4236888974742463e-06</v>
+        <v>-8.4234117427861577e-06</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="B4" s="0">
-        <v>0.29006674866173043</v>
+        <v>0.28989558244623115</v>
       </c>
       <c r="C4" s="0">
-        <v>-0.0013318653090890874</v>
+        <v>-0.0011614282107962261</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>6.197029140853549e-05</v>
+        <v>6.2000985625895329e-05</v>
       </c>
       <c r="F4" s="0">
-        <v>2.0310700913276336e-05</v>
+        <v>1.9266449014779017e-05</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>0.00010845187441225012</v>
+        <v>0.00010689842731998595</v>
       </c>
       <c r="I4" s="0">
-        <v>-0.0014747325916175474</v>
+        <v>-0.0014756019264444227</v>
       </c>
       <c r="J4" s="0">
-        <v>-1.9842783981911105e-05</v>
+        <v>-2.1404029144404087e-05</v>
       </c>
       <c r="K4" s="0">
-        <v>1.1126136234329564e-05</v>
+        <v>1.1132047610551421e-05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="B5" s="0">
-        <v>0.28594509726528322</v>
+        <v>0.2859984489113519</v>
       </c>
       <c r="C5" s="0">
-        <v>0.0048478524857074427</v>
+        <v>0.004477232788372006</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.005721423815900596</v>
+        <v>-0.0057114358249759859</v>
       </c>
       <c r="E5" s="0">
-        <v>-1.2532058012602153e-05</v>
+        <v>-1.5966329537405399e-05</v>
       </c>
       <c r="F5" s="0">
-        <v>-0.00058023970170533335</v>
+        <v>-0.00057303866659308975</v>
       </c>
       <c r="G5" s="0">
-        <v>-0.0013259655497840298</v>
+        <v>-0.0013325057422902264</v>
       </c>
       <c r="H5" s="0">
-        <v>-5.5765249079297442e-05</v>
+        <v>-5.5651507599047992e-05</v>
       </c>
       <c r="I5" s="0">
-        <v>-0.00037286138406756925</v>
+        <v>-0.00037246635774108866</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>-7.739627423231088e-06</v>
+        <v>-7.7414430796896028e-06</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="B6" s="0">
-        <v>0.3067184887855679</v>
+        <v>0.30697752994997801</v>
       </c>
       <c r="C6" s="0">
-        <v>0.026626389142046444</v>
+        <v>0.026985714173936061</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>-0.00016330172996874596</v>
+        <v>-0.00016331636578435942</v>
       </c>
       <c r="F6" s="0">
-        <v>-3.9988382522921613e-05</v>
+        <v>-3.9713055611963979e-05</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>-7.4963861850250313e-05</v>
+        <v>-7.4833824016323511e-05</v>
       </c>
       <c r="I6" s="0">
-        <v>-0.0024872881666104102</v>
+        <v>-0.0024867013972279693</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>-4.5665828452001733e-07</v>
+        <v>-4.6056134361815992e-07</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="B7" s="0">
-        <v>0.31196653594622459</v>
+        <v>0.31215798680008455</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.0018964970242068137</v>
+        <v>-0.0019048530291943793</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.00035730565221726396</v>
+        <v>-0.00034765938837119827</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.001632774819356477</v>
+        <v>-0.0016220322263986609</v>
       </c>
       <c r="G7" s="0">
-        <v>0.00090485844734531837</v>
+        <v>0.00090821646943312594</v>
       </c>
       <c r="H7" s="0">
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>0.00018876429033294837</v>
+        <v>0.0001883533865421673</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>-4.9444114695706975e-05</v>
+        <v>-4.9443324650177978e-05</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="B8" s="0">
-        <v>0.31864706530278464</v>
+        <v>0.3184397622268485</v>
       </c>
       <c r="C8" s="0">
-        <v>-0.039985097915106953</v>
+        <v>-0.040582912963816144</v>
       </c>
       <c r="D8" s="0">
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>6.0624735594868852e-05</v>
+        <v>6.0727017105884509e-05</v>
       </c>
       <c r="F8" s="0">
-        <v>-0.00045814748924434415</v>
+        <v>-0.00045804513510122304</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
       </c>
       <c r="H8" s="0">
-        <v>4.0629635357939878e-05</v>
+        <v>4.0772966975935747e-05</v>
       </c>
       <c r="I8" s="0">
-        <v>0.0017408336752492445</v>
+        <v>0.0017439626617848966</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
       </c>
       <c r="K8" s="0">
-        <v>-0.00012672024750748356</v>
+        <v>-0.00012671918218587486</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="B9" s="0">
-        <v>0.31207610703187499</v>
+        <v>0.31191034720460209</v>
       </c>
       <c r="C9" s="0">
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>0.0011226081833735219</v>
+        <v>0.001093227956889084</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.0026494966395533746</v>
+        <v>-0.0026588601189388435</v>
       </c>
       <c r="F9" s="0">
-        <v>-0.0063659711249954105</v>
+        <v>-0.0063712036283012849</v>
       </c>
       <c r="G9" s="0">
-        <v>0.00083366065886520692</v>
+        <v>0.00083930163221895024</v>
       </c>
       <c r="H9" s="0">
-        <v>-0.00016802755959165582</v>
+        <v>-0.00016736840984659372</v>
       </c>
       <c r="I9" s="0">
-        <v>-0.00048103743052742358</v>
+        <v>-0.00048045203303846994</v>
       </c>
       <c r="J9" s="0">
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>2.023578640197865e-05</v>
+        <v>2.023440181148084e-05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="B10" s="0">
-        <v>0.34247317857473453</v>
+        <v>0.34257408125287631</v>
       </c>
       <c r="C10" s="0">
-        <v>0.072755857903244306</v>
+        <v>0.073231417096805682</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>4.3239193553113428e-05</v>
+        <v>4.3055442549686194e-05</v>
       </c>
       <c r="F10" s="0">
-        <v>-0.00039627985097259575</v>
+        <v>-0.00039985827866346172</v>
       </c>
       <c r="G10" s="0">
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>3.5493444320220409e-06</v>
+        <v>3.4757210335102899e-06</v>
       </c>
       <c r="I10" s="0">
-        <v>-0.00052359688425565902</v>
+        <v>-0.00052957782864538434</v>
       </c>
       <c r="J10" s="0">
-        <v>-0.002071159832945842</v>
+        <v>-0.0020352390137541652</v>
       </c>
       <c r="K10" s="0">
-        <v>8.3642888987212061e-07</v>
+        <v>8.324830624295565e-07</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="B11" s="0">
-        <v>0.30303104707769152</v>
+        <v>0.3031182359031982</v>
       </c>
       <c r="C11" s="0">
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>-0.012001782145421195</v>
+        <v>-0.012254826472615143</v>
       </c>
       <c r="E11" s="0">
-        <v>0.0014647726510751699</v>
+        <v>0.0014663523885826393</v>
       </c>
       <c r="F11" s="0">
-        <v>0.0016857309612490507</v>
+        <v>0.0016299642222983972</v>
       </c>
       <c r="G11" s="0">
-        <v>0.001518605124232831</v>
+        <v>0.00152767174501353</v>
       </c>
       <c r="H11" s="0">
-        <v>0.00026066218882010185</v>
+        <v>0.00025748655634119145</v>
       </c>
       <c r="I11" s="0">
-        <v>-0.0045294536703760829</v>
+        <v>-0.0045520173237913394</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
       </c>
       <c r="K11" s="0">
-        <v>-8.5424417404389441e-05</v>
+        <v>-8.5423127783534891e-05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="B12" s="0">
-        <v>0.23410650938505859</v>
+        <v>0.23466872660141228</v>
       </c>
       <c r="C12" s="0">
-        <v>-0.041080788688553485</v>
+        <v>-0.052380418183747078</v>
       </c>
       <c r="D12" s="0">
         <v>0</v>
       </c>
       <c r="E12" s="0">
-        <v>0.00012005393746732484</v>
+        <v>0.00012739161997087339</v>
       </c>
       <c r="F12" s="0">
-        <v>9.6349337552514828e-06</v>
+        <v>0.0026708771027845165</v>
       </c>
       <c r="G12" s="0">
         <v>0</v>
       </c>
       <c r="H12" s="0">
-        <v>2.2004206473462715e-06</v>
+        <v>0.0008471842175958238</v>
       </c>
       <c r="I12" s="0">
-        <v>-3.387924211993353e-05</v>
+        <v>0.0056904027396991871</v>
       </c>
       <c r="J12" s="0">
         <v>0</v>
       </c>
       <c r="K12" s="0">
-        <v>4.5394574599288973e-08</v>
+        <v>-4.384813088176287e-07</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="0">
+        <v>0.089388811463438494</v>
+      </c>
+      <c r="C13" s="0">
+        <v>0</v>
+      </c>
+      <c r="D13" s="0">
+        <v>-0.058692057742071424</v>
+      </c>
+      <c r="E13" s="0">
+        <v>0.0015318293813294951</v>
+      </c>
+      <c r="F13" s="0">
+        <v>-0.0056066391560153674</v>
+      </c>
+      <c r="G13" s="0">
+        <v>-0.0011002455028904885</v>
+      </c>
+      <c r="H13" s="0">
+        <v>-0.00056548570844013578</v>
+      </c>
+      <c r="I13" s="0">
+        <v>-0.00030515818665549014</v>
+      </c>
+      <c r="J13" s="0">
+        <v>0</v>
+      </c>
+      <c r="K13" s="0">
+        <v>0.00033627505472993979</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="0">
+        <v>0.00094252215887058455</v>
+      </c>
+      <c r="C14" s="0">
+        <v>-0.1476605969860629</v>
+      </c>
+      <c r="D14" s="0">
+        <v>0</v>
+      </c>
+      <c r="E14" s="0">
+        <v>2.1340668008743453e-05</v>
+      </c>
+      <c r="F14" s="0">
+        <v>0.000355540144277276</v>
+      </c>
+      <c r="G14" s="0">
+        <v>0</v>
+      </c>
+      <c r="H14" s="0">
+        <v>0.00019055536889055804</v>
+      </c>
+      <c r="I14" s="0">
+        <v>-0.021162849825317378</v>
+      </c>
+      <c r="J14" s="0">
+        <v>0</v>
+      </c>
+      <c r="K14" s="0">
+        <v>-1.8249358694072404e-06</v>
       </c>
     </row>
   </sheetData>

--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr5_Np1_Nj0.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr5_Np1_Nj0.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
   <si>
     <t>Row</t>
   </si>
@@ -313,6 +313,81 @@
   </si>
   <si>
     <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -388,7 +463,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K15"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
@@ -406,42 +481,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="B2" s="0">
         <v>0.29049029720162994</v>
@@ -476,7 +551,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="B3" s="0">
         <v>0.28840468497359872</v>
@@ -511,7 +586,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="B4" s="0">
         <v>0.28989558244623115</v>
@@ -546,7 +621,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="B5" s="0">
         <v>0.2859984489113519</v>
@@ -581,7 +656,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="B6" s="0">
         <v>0.30697752994997801</v>
@@ -616,7 +691,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="B7" s="0">
         <v>0.31215798680008455</v>
@@ -651,7 +726,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="B8" s="0">
         <v>0.3184397622268485</v>
@@ -686,7 +761,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="B9" s="0">
         <v>0.31191034720460209</v>
@@ -721,7 +796,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="B10" s="0">
         <v>0.34257408125287631</v>
@@ -756,7 +831,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="B11" s="0">
         <v>0.3031182359031982</v>
@@ -791,7 +866,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="B12" s="0">
         <v>0.23466872660141228</v>
@@ -826,7 +901,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="B13" s="0">
         <v>0.089388811463438494</v>
@@ -861,37 +936,72 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B14" s="0">
-        <v>0.00094252215887058455</v>
+        <v>0.05556220596681527</v>
       </c>
       <c r="C14" s="0">
-        <v>-0.1476605969860629</v>
+        <v>-0.12411234599110475</v>
       </c>
       <c r="D14" s="0">
         <v>0</v>
       </c>
       <c r="E14" s="0">
-        <v>2.1340668008743453e-05</v>
+        <v>5.5340731311307956e-06</v>
       </c>
       <c r="F14" s="0">
-        <v>0.000355540144277276</v>
+        <v>4.6534419118866463e-05</v>
       </c>
       <c r="G14" s="0">
         <v>0</v>
       </c>
       <c r="H14" s="0">
-        <v>0.00019055536889055804</v>
+        <v>-0.001991027330697271</v>
       </c>
       <c r="I14" s="0">
-        <v>-0.021162849825317378</v>
+        <v>-0.0036478595081019822</v>
       </c>
       <c r="J14" s="0">
         <v>0</v>
       </c>
       <c r="K14" s="0">
-        <v>-1.8249358694072404e-06</v>
+        <v>-0.0060380729796588456</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" s="0">
+        <v>-0.17866010257346004</v>
+      </c>
+      <c r="C15" s="0">
+        <v>0</v>
+      </c>
+      <c r="D15" s="0">
+        <v>-0.10048128163174194</v>
+      </c>
+      <c r="E15" s="0">
+        <v>-0.0015072424041141443</v>
+      </c>
+      <c r="F15" s="0">
+        <v>-0.0043905688134895718</v>
+      </c>
+      <c r="G15" s="0">
+        <v>0.010517459322638024</v>
+      </c>
+      <c r="H15" s="0">
+        <v>0</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>0</v>
+      </c>
+      <c r="K15" s="0">
+        <v>-5.7037736737874933e-05</v>
       </c>
     </row>
   </sheetData>
